--- a/ТПЭ, л.р. 2, отчет.xlsx
+++ b/ТПЭ, л.р. 2, отчет.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки\ТПЭ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC21FC5-BB7F-47A7-8DF7-D49C09B002AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCD2FE1-530B-4990-A307-77D23C7A39D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1332,76 +1332,124 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1430,54 +1478,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5462,43 +5462,43 @@
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="40"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="107">
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="115">
         <v>1</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="107">
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="115">
         <v>2</v>
       </c>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="107">
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="115">
         <v>3</v>
       </c>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="107">
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="115">
         <v>4</v>
       </c>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="107">
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="115">
         <v>5</v>
       </c>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="109"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="117"/>
       <c r="AC2" s="22"/>
       <c r="AD2" s="5" t="s">
         <v>0</v>
@@ -5516,8 +5516,8 @@
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="40"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
       <c r="D3" s="46">
         <v>1</v>
       </c>
@@ -5616,7 +5616,7 @@
       <c r="A4" s="40">
         <v>1</v>
       </c>
-      <c r="B4" s="110">
+      <c r="B4" s="102">
         <v>1</v>
       </c>
       <c r="C4" s="43">
@@ -5669,7 +5669,7 @@
       <c r="A5" s="40">
         <v>1</v>
       </c>
-      <c r="B5" s="111"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="44">
         <v>2</v>
       </c>
@@ -5720,7 +5720,7 @@
       <c r="A6" s="40">
         <v>1</v>
       </c>
-      <c r="B6" s="111"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="44">
         <v>3</v>
       </c>
@@ -5741,7 +5741,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="15">
         <f ca="1">RANDBETWEEN($AD$3*S$1+$AE$3*S$3+$AF$3*$A6+$AG$3*$C6-1, $AD$3*S$1+$AE$3*S$3+$AF$3*$A6+$AG$3*$C6+1)</f>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
@@ -5763,7 +5763,7 @@
       <c r="A7" s="40">
         <v>1</v>
       </c>
-      <c r="B7" s="111"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="44">
         <v>4</v>
       </c>
@@ -5796,19 +5796,19 @@
       <c r="AA7" s="13"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="22"/>
-      <c r="AD7" s="101" t="s">
+      <c r="AD7" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="AE7" s="102"/>
-      <c r="AF7" s="102"/>
-      <c r="AG7" s="103"/>
+      <c r="AE7" s="110"/>
+      <c r="AF7" s="110"/>
+      <c r="AG7" s="111"/>
       <c r="AH7" s="1"/>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="40">
         <v>1</v>
       </c>
-      <c r="B8" s="112"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="45">
         <v>5</v>
       </c>
@@ -5827,7 +5827,7 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="18">
         <f ca="1">RANDBETWEEN($AD$3*Q$1+$AE$3*Q$3+$AF$3*$A8+$AG$3*$C8-1, $AD$3*Q$1+$AE$3*Q$3+$AF$3*$A8+$AG$3*$C8+1)</f>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="17"/>
@@ -5859,7 +5859,7 @@
       <c r="A9" s="40">
         <v>2</v>
       </c>
-      <c r="B9" s="110">
+      <c r="B9" s="102">
         <v>2</v>
       </c>
       <c r="C9" s="43">
@@ -5881,7 +5881,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="19">
         <f ca="1">RANDBETWEEN($AD$3*R$1+$AE$3*R$3+$AF$3*$A9+$AG$3*$C9-1, $AD$3*R$1+$AE$3*R$3+$AF$3*$A9+$AG$3*$C9+1)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S9" s="8"/>
       <c r="T9" s="9"/>
@@ -5912,7 +5912,7 @@
       <c r="A10" s="40">
         <v>2</v>
       </c>
-      <c r="B10" s="111"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="44">
         <v>2</v>
       </c>
@@ -5945,19 +5945,19 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="22"/>
-      <c r="AD10" s="101" t="s">
+      <c r="AD10" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="103"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="110"/>
+      <c r="AG10" s="111"/>
       <c r="AH10" s="1"/>
     </row>
     <row r="11" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="40">
         <v>2</v>
       </c>
-      <c r="B11" s="111"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="44">
         <v>3</v>
       </c>
@@ -5985,25 +5985,25 @@
       <c r="Y11" s="13"/>
       <c r="Z11" s="14">
         <f ca="1">RANDBETWEEN($AD$3*Z$1+$AE$3*Z$3+$AF$3*$A11+$AG$3*$C11-1, $AD$3*Z$1+$AE$3*Z$3+$AF$3*$A11+$AG$3*$C11+1)</f>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA11" s="13"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="22"/>
-      <c r="AD11" s="104">
+      <c r="AD11" s="112">
         <f>AD3*AD9+AE3*AE9+AF3*AF9+AG3*AG9</f>
         <v>34</v>
       </c>
-      <c r="AE11" s="105"/>
-      <c r="AF11" s="105"/>
-      <c r="AG11" s="106"/>
+      <c r="AE11" s="113"/>
+      <c r="AF11" s="113"/>
+      <c r="AG11" s="114"/>
       <c r="AH11" s="1"/>
     </row>
     <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>2</v>
       </c>
-      <c r="B12" s="111"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="44">
         <v>4</v>
       </c>
@@ -6046,7 +6046,7 @@
       <c r="A13" s="40">
         <v>2</v>
       </c>
-      <c r="B13" s="112"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="45">
         <v>5</v>
       </c>
@@ -6089,7 +6089,7 @@
       <c r="A14" s="40">
         <v>3</v>
       </c>
-      <c r="B14" s="110">
+      <c r="B14" s="102">
         <v>3</v>
       </c>
       <c r="C14" s="43">
@@ -6134,7 +6134,7 @@
       <c r="A15" s="40">
         <v>3</v>
       </c>
-      <c r="B15" s="111"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="44">
         <v>2</v>
       </c>
@@ -6150,7 +6150,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="15">
         <f ca="1">RANDBETWEEN($AD$3*N$1+$AE$3*N$3+$AF$3*$A15+$AG$3*$C15-1, $AD$3*N$1+$AE$3*N$3+$AF$3*$A15+$AG$3*$C15+1)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
@@ -6177,7 +6177,7 @@
       <c r="A16" s="40">
         <v>3</v>
       </c>
-      <c r="B16" s="111"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="44">
         <v>3</v>
       </c>
@@ -6187,7 +6187,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="16">
         <f ca="1">RANDBETWEEN($AD$3*H$1+$AE$3*H$3+$AF$3*$A16+$AG$3*$C16-1, $AD$3*H$1+$AE$3*H$3+$AF$3*$A16+$AG$3*$C16+1)</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="13"/>
@@ -6220,7 +6220,7 @@
       <c r="A17" s="40">
         <v>3</v>
       </c>
-      <c r="B17" s="111"/>
+      <c r="B17" s="103"/>
       <c r="C17" s="44">
         <v>4</v>
       </c>
@@ -6263,7 +6263,7 @@
       <c r="A18" s="40">
         <v>3</v>
       </c>
-      <c r="B18" s="112"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="45">
         <v>5</v>
       </c>
@@ -6286,7 +6286,7 @@
       <c r="T18" s="4"/>
       <c r="U18" s="18">
         <f ca="1">RANDBETWEEN($AD$3*U$1+$AE$3*U$3+$AF$3*$A18+$AG$3*$C18-1, $AD$3*U$1+$AE$3*U$3+$AF$3*$A18+$AG$3*$C18+1)</f>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V18" s="4"/>
       <c r="W18" s="3"/>
@@ -6306,7 +6306,7 @@
       <c r="A19" s="40">
         <v>4</v>
       </c>
-      <c r="B19" s="110">
+      <c r="B19" s="102">
         <v>4</v>
       </c>
       <c r="C19" s="43">
@@ -6334,7 +6334,7 @@
       <c r="W19" s="11"/>
       <c r="X19" s="39">
         <f ca="1">RANDBETWEEN($AD$3*X$1+$AE$3*X$3+$AF$3*$A19+$AG$3*$C19-1, $AD$3*X$1+$AE$3*X$3+$AF$3*$A19+$AG$3*$C19+1)</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
@@ -6351,7 +6351,7 @@
       <c r="A20" s="40">
         <v>4</v>
       </c>
-      <c r="B20" s="111"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="44">
         <v>2</v>
       </c>
@@ -6376,7 +6376,7 @@
       <c r="V20" s="13"/>
       <c r="W20" s="16">
         <f ca="1">RANDBETWEEN($AD$3*W$1+$AE$3*W$3+$AF$3*$A20+$AG$3*$C20-1, $AD$3*W$1+$AE$3*W$3+$AF$3*$A20+$AG$3*$C20+1)</f>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X20" s="12"/>
       <c r="Y20" s="13"/>
@@ -6394,7 +6394,7 @@
       <c r="A21" s="40">
         <v>4</v>
       </c>
-      <c r="B21" s="111"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="44">
         <v>3</v>
       </c>
@@ -6408,7 +6408,7 @@
       <c r="K21" s="13"/>
       <c r="L21" s="14">
         <f ca="1">RANDBETWEEN($AD$3*L$1+$AE$3*L$3+$AF$3*$A21+$AG$3*$C21-1, $AD$3*L$1+$AE$3*L$3+$AF$3*$A21+$AG$3*$C21+1)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="12"/>
@@ -6437,7 +6437,7 @@
       <c r="A22" s="40">
         <v>4</v>
       </c>
-      <c r="B22" s="111"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="44">
         <v>4</v>
       </c>
@@ -6455,7 +6455,7 @@
       <c r="O22" s="13"/>
       <c r="P22" s="14">
         <f ca="1">RANDBETWEEN($AD$3*P$1+$AE$3*P$3+$AF$3*$A22+$AG$3*$C22-1, $AD$3*P$1+$AE$3*P$3+$AF$3*$A22+$AG$3*$C22+1)</f>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="13"/>
       <c r="R22" s="2"/>
@@ -6480,14 +6480,14 @@
       <c r="A23" s="40">
         <v>4</v>
       </c>
-      <c r="B23" s="112"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="45">
         <v>5</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="18">
         <f ca="1">RANDBETWEEN($AD$3*E$1+$AE$3*E$3+$AF$3*$A23+$AG$3*$C23-1, $AD$3*E$1+$AE$3*E$3+$AF$3*$A23+$AG$3*$C23+1)</f>
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -6523,7 +6523,7 @@
       <c r="A24" s="40">
         <v>5</v>
       </c>
-      <c r="B24" s="110">
+      <c r="B24" s="102">
         <v>5</v>
       </c>
       <c r="C24" s="43">
@@ -6568,7 +6568,7 @@
       <c r="A25" s="40">
         <v>5</v>
       </c>
-      <c r="B25" s="111"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="44">
         <v>2</v>
       </c>
@@ -6611,7 +6611,7 @@
       <c r="A26" s="40">
         <v>5</v>
       </c>
-      <c r="B26" s="111"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="44">
         <v>3</v>
       </c>
@@ -6628,7 +6628,7 @@
       <c r="N26" s="12"/>
       <c r="O26" s="14">
         <f ca="1">RANDBETWEEN($AD$3*O$1+$AE$3*O$3+$AF$3*$A26+$AG$3*$C26-1, $AD$3*O$1+$AE$3*O$3+$AF$3*$A26+$AG$3*$C26+1)</f>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
@@ -6654,13 +6654,13 @@
       <c r="A27" s="40">
         <v>5</v>
       </c>
-      <c r="B27" s="111"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="44">
         <v>4</v>
       </c>
       <c r="D27" s="15">
         <f ca="1">RANDBETWEEN($AD$3*D$1+$AE$3*D$3+$AF$3*$A27+$AG$3*$C27-1, $AD$3*D$1+$AE$3*D$3+$AF$3*$A27+$AG$3*$C27+1)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -6697,7 +6697,7 @@
       <c r="A28" s="40">
         <v>5</v>
       </c>
-      <c r="B28" s="112"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="45">
         <v>5</v>
       </c>
@@ -6982,12 +6982,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B4:B8"/>
     <mergeCell ref="AD7:AG7"/>
     <mergeCell ref="AD10:AG10"/>
     <mergeCell ref="AD11:AG11"/>
@@ -6996,6 +6990,12 @@
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="S2:W2"/>
     <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7016,47 +7016,47 @@
   <sheetData>
     <row r="1" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="120"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="101">
+      <c r="B2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="109">
         <v>1</v>
       </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="101">
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="109">
         <v>2</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="101">
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="109">
         <v>3</v>
       </c>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="101">
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="109">
         <v>4</v>
       </c>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="101">
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="109">
         <v>5</v>
       </c>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="103"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="111"/>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="122"/>
-      <c r="C3" s="123"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="124"/>
       <c r="D3" s="59">
         <v>1</v>
       </c>
@@ -7134,7 +7134,7 @@
       </c>
     </row>
     <row r="4" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="117">
+      <c r="B4" s="118">
         <v>1</v>
       </c>
       <c r="C4" s="56">
@@ -7169,7 +7169,7 @@
       <c r="AB4" s="54"/>
     </row>
     <row r="5" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="118"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="57">
         <v>2</v>
       </c>
@@ -7202,7 +7202,7 @@
       <c r="AB5" s="32"/>
     </row>
     <row r="6" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="118"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="57">
         <v>3</v>
       </c>
@@ -7235,7 +7235,7 @@
       <c r="AB6" s="32"/>
     </row>
     <row r="7" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="118"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="57">
         <v>4</v>
       </c>
@@ -7268,7 +7268,7 @@
       <c r="AB7" s="32"/>
     </row>
     <row r="8" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="119"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="58">
         <v>5</v>
       </c>
@@ -7301,7 +7301,7 @@
       <c r="AB8" s="35"/>
     </row>
     <row r="9" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="117">
+      <c r="B9" s="118">
         <v>2</v>
       </c>
       <c r="C9" s="56">
@@ -7336,7 +7336,7 @@
       <c r="AB9" s="54"/>
     </row>
     <row r="10" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="118"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="57">
         <v>2</v>
       </c>
@@ -7369,7 +7369,7 @@
       <c r="AB10" s="32"/>
     </row>
     <row r="11" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="118"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="57">
         <v>3</v>
       </c>
@@ -7402,7 +7402,7 @@
       <c r="AB11" s="32"/>
     </row>
     <row r="12" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="118"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="57">
         <v>4</v>
       </c>
@@ -7435,7 +7435,7 @@
       <c r="AB12" s="32"/>
     </row>
     <row r="13" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="119"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="58">
         <v>5</v>
       </c>
@@ -7468,7 +7468,7 @@
       <c r="AB13" s="35"/>
     </row>
     <row r="14" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="117">
+      <c r="B14" s="118">
         <v>3</v>
       </c>
       <c r="C14" s="56">
@@ -7503,7 +7503,7 @@
       <c r="AB14" s="54"/>
     </row>
     <row r="15" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="118"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="57">
         <v>2</v>
       </c>
@@ -7536,7 +7536,7 @@
       <c r="AB15" s="32"/>
     </row>
     <row r="16" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="118"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="57">
         <v>3</v>
       </c>
@@ -7569,7 +7569,7 @@
       <c r="AB16" s="32"/>
     </row>
     <row r="17" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="118"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="57">
         <v>4</v>
       </c>
@@ -7602,7 +7602,7 @@
       <c r="AB17" s="32"/>
     </row>
     <row r="18" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="119"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="58">
         <v>5</v>
       </c>
@@ -7635,7 +7635,7 @@
       <c r="AB18" s="35"/>
     </row>
     <row r="19" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="117">
+      <c r="B19" s="118">
         <v>4</v>
       </c>
       <c r="C19" s="56">
@@ -7670,7 +7670,7 @@
       <c r="AB19" s="54"/>
     </row>
     <row r="20" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="118"/>
+      <c r="B20" s="119"/>
       <c r="C20" s="57">
         <v>2</v>
       </c>
@@ -7703,7 +7703,7 @@
       <c r="AB20" s="32"/>
     </row>
     <row r="21" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="118"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="57">
         <v>3</v>
       </c>
@@ -7736,7 +7736,7 @@
       <c r="AB21" s="32"/>
     </row>
     <row r="22" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="118"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="57">
         <v>4</v>
       </c>
@@ -7769,7 +7769,7 @@
       <c r="AB22" s="32"/>
     </row>
     <row r="23" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="119"/>
+      <c r="B23" s="120"/>
       <c r="C23" s="58">
         <v>5</v>
       </c>
@@ -7802,7 +7802,7 @@
       <c r="AB23" s="35"/>
     </row>
     <row r="24" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="117">
+      <c r="B24" s="118">
         <v>5</v>
       </c>
       <c r="C24" s="56">
@@ -7837,7 +7837,7 @@
       <c r="AB24" s="54"/>
     </row>
     <row r="25" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="118"/>
+      <c r="B25" s="119"/>
       <c r="C25" s="57">
         <v>2</v>
       </c>
@@ -7870,7 +7870,7 @@
       <c r="AB25" s="32"/>
     </row>
     <row r="26" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="118"/>
+      <c r="B26" s="119"/>
       <c r="C26" s="57">
         <v>3</v>
       </c>
@@ -7903,7 +7903,7 @@
       <c r="AB26" s="32"/>
     </row>
     <row r="27" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="118"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="57">
         <v>4</v>
       </c>
@@ -7936,7 +7936,7 @@
       <c r="AB27" s="32"/>
     </row>
     <row r="28" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="119"/>
+      <c r="B28" s="120"/>
       <c r="C28" s="58">
         <v>5</v>
       </c>
@@ -7993,7 +7993,7 @@
   <dimension ref="A1:AR115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8005,17 +8005,17 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="117" t="s">
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="118" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="86" t="s">
@@ -8071,7 +8071,7 @@
       </c>
     </row>
     <row r="3" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="119"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="90">
         <v>1</v>
       </c>
@@ -8087,8 +8087,8 @@
       <c r="G3" s="92">
         <v>5</v>
       </c>
-      <c r="H3" s="119"/>
-      <c r="J3" s="139" t="s">
+      <c r="H3" s="120"/>
+      <c r="J3" s="137" t="s">
         <v>34</v>
       </c>
       <c r="K3" s="66">
@@ -8180,7 +8180,7 @@
         <f>AVERAGE(C4:G4)</f>
         <v>77.400000000000006</v>
       </c>
-      <c r="J4" s="140"/>
+      <c r="J4" s="138"/>
       <c r="K4" s="31">
         <v>2</v>
       </c>
@@ -8270,7 +8270,7 @@
         <f t="shared" ref="H5:H8" si="8">AVERAGE(C5:G5)</f>
         <v>81</v>
       </c>
-      <c r="J5" s="140"/>
+      <c r="J5" s="138"/>
       <c r="K5" s="31">
         <v>3</v>
       </c>
@@ -8360,7 +8360,7 @@
         <f t="shared" si="8"/>
         <v>84.8</v>
       </c>
-      <c r="J6" s="140"/>
+      <c r="J6" s="138"/>
       <c r="K6" s="31">
         <v>4</v>
       </c>
@@ -8450,7 +8450,7 @@
         <f t="shared" si="8"/>
         <v>86.8</v>
       </c>
-      <c r="J7" s="141"/>
+      <c r="J7" s="139"/>
       <c r="K7" s="88">
         <v>5</v>
       </c>
@@ -8701,60 +8701,60 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
-      <c r="J10" s="139" t="s">
+      <c r="J10" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="124"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="126"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="126"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="141"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="142"/>
+      <c r="S10" s="140"/>
+      <c r="T10" s="141"/>
+      <c r="U10" s="141"/>
+      <c r="V10" s="142"/>
+      <c r="W10" s="140"/>
+      <c r="X10" s="141"/>
+      <c r="Y10" s="141"/>
+      <c r="Z10" s="142"/>
     </row>
     <row r="11" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="117" t="s">
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="140"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="129"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="128"/>
-      <c r="Q11" s="128"/>
-      <c r="R11" s="129"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
-      <c r="V11" s="129"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="129"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="144"/>
+      <c r="Q11" s="144"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="144"/>
+      <c r="U11" s="144"/>
+      <c r="V11" s="145"/>
+      <c r="W11" s="143"/>
+      <c r="X11" s="144"/>
+      <c r="Y11" s="144"/>
+      <c r="Z11" s="145"/>
     </row>
     <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="119"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="90">
         <v>1</v>
       </c>
@@ -8770,24 +8770,24 @@
       <c r="G12" s="92">
         <v>5</v>
       </c>
-      <c r="H12" s="119"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="128"/>
-      <c r="R12" s="129"/>
-      <c r="S12" s="127"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="128"/>
-      <c r="V12" s="129"/>
-      <c r="W12" s="127"/>
-      <c r="X12" s="128"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="129"/>
+      <c r="H12" s="120"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="145"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="144"/>
+      <c r="U12" s="144"/>
+      <c r="V12" s="145"/>
+      <c r="W12" s="143"/>
+      <c r="X12" s="144"/>
+      <c r="Y12" s="144"/>
+      <c r="Z12" s="145"/>
     </row>
     <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="84">
@@ -8817,23 +8817,23 @@
         <f>AVERAGE(C13:G13)</f>
         <v>50</v>
       </c>
-      <c r="J13" s="140"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="128"/>
-      <c r="R13" s="129"/>
-      <c r="S13" s="127"/>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="129"/>
-      <c r="W13" s="127"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="129"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="143"/>
+      <c r="P13" s="144"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="145"/>
+      <c r="S13" s="143"/>
+      <c r="T13" s="144"/>
+      <c r="U13" s="144"/>
+      <c r="V13" s="145"/>
+      <c r="W13" s="143"/>
+      <c r="X13" s="144"/>
+      <c r="Y13" s="144"/>
+      <c r="Z13" s="145"/>
     </row>
     <row r="14" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="65">
@@ -8863,23 +8863,23 @@
         <f t="shared" ref="H14:H17" si="11">AVERAGE(C14:G14)</f>
         <v>67.2</v>
       </c>
-      <c r="J14" s="140"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="128"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="128"/>
-      <c r="Q14" s="128"/>
-      <c r="R14" s="129"/>
-      <c r="S14" s="127"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="129"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="128"/>
-      <c r="Y14" s="128"/>
-      <c r="Z14" s="129"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="144"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="145"/>
+      <c r="S14" s="143"/>
+      <c r="T14" s="144"/>
+      <c r="U14" s="144"/>
+      <c r="V14" s="145"/>
+      <c r="W14" s="143"/>
+      <c r="X14" s="144"/>
+      <c r="Y14" s="144"/>
+      <c r="Z14" s="145"/>
     </row>
     <row r="15" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="65">
@@ -8909,23 +8909,23 @@
         <f t="shared" si="11"/>
         <v>84.2</v>
       </c>
-      <c r="J15" s="140"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="129"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="129"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="129"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="128"/>
-      <c r="Z15" s="129"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="144"/>
+      <c r="M15" s="144"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="144"/>
+      <c r="Q15" s="144"/>
+      <c r="R15" s="145"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="144"/>
+      <c r="U15" s="144"/>
+      <c r="V15" s="145"/>
+      <c r="W15" s="143"/>
+      <c r="X15" s="144"/>
+      <c r="Y15" s="144"/>
+      <c r="Z15" s="145"/>
     </row>
     <row r="16" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="65">
@@ -8955,23 +8955,23 @@
         <f t="shared" si="11"/>
         <v>101</v>
       </c>
-      <c r="J16" s="140"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="128"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="129"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="129"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="144"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="143"/>
+      <c r="P16" s="144"/>
+      <c r="Q16" s="144"/>
+      <c r="R16" s="145"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="144"/>
+      <c r="U16" s="144"/>
+      <c r="V16" s="145"/>
+      <c r="W16" s="143"/>
+      <c r="X16" s="144"/>
+      <c r="Y16" s="144"/>
+      <c r="Z16" s="145"/>
     </row>
     <row r="17" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="85">
@@ -9001,23 +9001,23 @@
         <f t="shared" si="11"/>
         <v>118.2</v>
       </c>
-      <c r="J17" s="140"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="129"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="128"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="129"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
-      <c r="Z17" s="129"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="145"/>
+      <c r="S17" s="143"/>
+      <c r="T17" s="144"/>
+      <c r="U17" s="144"/>
+      <c r="V17" s="145"/>
+      <c r="W17" s="143"/>
+      <c r="X17" s="144"/>
+      <c r="Y17" s="144"/>
+      <c r="Z17" s="145"/>
     </row>
     <row r="18" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="86" t="s">
@@ -9044,23 +9044,23 @@
         <v>93.8</v>
       </c>
       <c r="H18" s="78"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="132"/>
-      <c r="S18" s="130"/>
-      <c r="T18" s="131"/>
-      <c r="U18" s="131"/>
-      <c r="V18" s="132"/>
-      <c r="W18" s="130"/>
-      <c r="X18" s="131"/>
-      <c r="Y18" s="131"/>
-      <c r="Z18" s="132"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="147"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="148"/>
+      <c r="S18" s="146"/>
+      <c r="T18" s="147"/>
+      <c r="U18" s="147"/>
+      <c r="V18" s="148"/>
+      <c r="W18" s="146"/>
+      <c r="X18" s="147"/>
+      <c r="Y18" s="147"/>
+      <c r="Z18" s="148"/>
     </row>
     <row r="19" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
@@ -9242,7 +9242,7 @@
         <v>-0.40000000000003411</v>
       </c>
       <c r="T21" s="71">
-        <f>POWER(O21-$B$26, 2)</f>
+        <f t="shared" ref="T21:T45" si="13">POWER(O21-$B$26, 2)</f>
         <v>2412.7744000000002</v>
       </c>
       <c r="U21" s="22"/>
@@ -9271,13 +9271,13 @@
     </row>
     <row r="22" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="22"/>
-      <c r="B22" s="136" t="s">
+      <c r="B22" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="136"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -9303,19 +9303,19 @@
         <v>59.580000000000034</v>
       </c>
       <c r="Q22" s="71">
-        <f t="shared" ref="Q22:Q45" si="13">O22-P22</f>
+        <f t="shared" ref="Q22:Q45" si="14">O22-P22</f>
         <v>-0.58000000000003382</v>
       </c>
       <c r="R22" s="71">
-        <f t="shared" ref="R22:R45" si="14">P22+$F$21</f>
+        <f t="shared" ref="R22:R45" si="15">P22+$F$21</f>
         <v>59.759999999999984</v>
       </c>
       <c r="S22" s="71">
-        <f t="shared" ref="S22:S45" si="15">R22-O22</f>
+        <f t="shared" ref="S22:S45" si="16">R22-O22</f>
         <v>0.7599999999999838</v>
       </c>
       <c r="T22" s="71">
-        <f>POWER(O22-$B$26, 2)</f>
+        <f t="shared" si="13"/>
         <v>631.01440000000025</v>
       </c>
       <c r="U22" s="22"/>
@@ -9345,13 +9345,13 @@
     </row>
     <row r="23" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22"/>
-      <c r="B23" s="133" t="s">
+      <c r="B23" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="135"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="133"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
@@ -9373,23 +9373,23 @@
         <v>85</v>
       </c>
       <c r="P23" s="71">
-        <f t="shared" ref="P22:P44" si="16">SUMPRODUCT($B$21:$E$21,K23:N23)</f>
+        <f t="shared" ref="P23:P44" si="17">SUMPRODUCT($B$21:$E$21,K23:N23)</f>
         <v>84.740000000000052</v>
       </c>
       <c r="Q23" s="71">
+        <f t="shared" si="14"/>
+        <v>0.25999999999994827</v>
+      </c>
+      <c r="R23" s="71">
+        <f t="shared" si="15"/>
+        <v>84.92</v>
+      </c>
+      <c r="S23" s="71">
+        <f t="shared" si="16"/>
+        <v>-7.9999999999998295E-2</v>
+      </c>
+      <c r="T23" s="71">
         <f t="shared" si="13"/>
-        <v>0.25999999999994827</v>
-      </c>
-      <c r="R23" s="71">
-        <f t="shared" si="14"/>
-        <v>84.92</v>
-      </c>
-      <c r="S23" s="71">
-        <f t="shared" si="15"/>
-        <v>-7.9999999999998295E-2</v>
-      </c>
-      <c r="T23" s="71">
-        <f>POWER(O23-$B$26, 2)</f>
         <v>0.77439999999999198</v>
       </c>
       <c r="U23" s="22"/>
@@ -9445,23 +9445,23 @@
         <v>114</v>
       </c>
       <c r="P24" s="71">
+        <f t="shared" si="17"/>
+        <v>114.04000000000008</v>
+      </c>
+      <c r="Q24" s="71">
+        <f t="shared" si="14"/>
+        <v>-4.0000000000077307E-2</v>
+      </c>
+      <c r="R24" s="71">
+        <f t="shared" si="15"/>
+        <v>114.22000000000003</v>
+      </c>
+      <c r="S24" s="71">
         <f t="shared" si="16"/>
-        <v>114.04000000000008</v>
-      </c>
-      <c r="Q24" s="71">
+        <v>0.22000000000002728</v>
+      </c>
+      <c r="T24" s="71">
         <f t="shared" si="13"/>
-        <v>-4.0000000000077307E-2</v>
-      </c>
-      <c r="R24" s="71">
-        <f t="shared" si="14"/>
-        <v>114.22000000000003</v>
-      </c>
-      <c r="S24" s="71">
-        <f t="shared" si="15"/>
-        <v>0.22000000000002728</v>
-      </c>
-      <c r="T24" s="71">
-        <f>POWER(O24-$B$26, 2)</f>
         <v>892.81439999999975</v>
       </c>
       <c r="U24" s="22"/>
@@ -9494,16 +9494,16 @@
       <c r="B25" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G25" s="22"/>
@@ -9527,23 +9527,23 @@
         <v>98</v>
       </c>
       <c r="P25" s="71">
+        <f t="shared" si="17"/>
+        <v>98.72000000000007</v>
+      </c>
+      <c r="Q25" s="71">
+        <f t="shared" si="14"/>
+        <v>-0.72000000000006992</v>
+      </c>
+      <c r="R25" s="71">
+        <f t="shared" si="15"/>
+        <v>98.90000000000002</v>
+      </c>
+      <c r="S25" s="71">
         <f t="shared" si="16"/>
-        <v>98.72000000000007</v>
-      </c>
-      <c r="Q25" s="71">
+        <v>0.9000000000000199</v>
+      </c>
+      <c r="T25" s="71">
         <f t="shared" si="13"/>
-        <v>-0.72000000000006992</v>
-      </c>
-      <c r="R25" s="71">
-        <f t="shared" si="14"/>
-        <v>98.90000000000002</v>
-      </c>
-      <c r="S25" s="71">
-        <f t="shared" si="15"/>
-        <v>0.9000000000000199</v>
-      </c>
-      <c r="T25" s="71">
-        <f>POWER(O25-$B$26, 2)</f>
         <v>192.65439999999987</v>
       </c>
       <c r="U25" s="22"/>
@@ -9573,7 +9573,7 @@
     </row>
     <row r="26" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="22"/>
-      <c r="B26" s="142">
+      <c r="B26" s="101">
         <f>AVERAGE(O21:O45)</f>
         <v>84.12</v>
       </c>
@@ -9611,23 +9611,23 @@
         <v>95</v>
       </c>
       <c r="P26" s="71">
+        <f t="shared" si="17"/>
+        <v>94.740000000000066</v>
+      </c>
+      <c r="Q26" s="71">
+        <f t="shared" si="14"/>
+        <v>0.25999999999993406</v>
+      </c>
+      <c r="R26" s="71">
+        <f t="shared" si="15"/>
+        <v>94.920000000000016</v>
+      </c>
+      <c r="S26" s="71">
         <f t="shared" si="16"/>
-        <v>94.740000000000066</v>
-      </c>
-      <c r="Q26" s="71">
+        <v>-7.9999999999984084E-2</v>
+      </c>
+      <c r="T26" s="71">
         <f t="shared" si="13"/>
-        <v>0.25999999999993406</v>
-      </c>
-      <c r="R26" s="71">
-        <f t="shared" si="14"/>
-        <v>94.920000000000016</v>
-      </c>
-      <c r="S26" s="71">
-        <f t="shared" si="15"/>
-        <v>-7.9999999999984084E-2</v>
-      </c>
-      <c r="T26" s="71">
-        <f>POWER(O26-$B$26, 2)</f>
         <v>118.37439999999989</v>
       </c>
       <c r="U26" s="22"/>
@@ -9683,23 +9683,23 @@
         <v>103</v>
       </c>
       <c r="P27" s="71">
+        <f t="shared" si="17"/>
+        <v>103.80000000000008</v>
+      </c>
+      <c r="Q27" s="71">
+        <f t="shared" si="14"/>
+        <v>-0.80000000000008242</v>
+      </c>
+      <c r="R27" s="71">
+        <f t="shared" si="15"/>
+        <v>103.98000000000003</v>
+      </c>
+      <c r="S27" s="71">
         <f t="shared" si="16"/>
-        <v>103.80000000000008</v>
-      </c>
-      <c r="Q27" s="71">
+        <v>0.9800000000000324</v>
+      </c>
+      <c r="T27" s="71">
         <f t="shared" si="13"/>
-        <v>-0.80000000000008242</v>
-      </c>
-      <c r="R27" s="71">
-        <f t="shared" si="14"/>
-        <v>103.98000000000003</v>
-      </c>
-      <c r="S27" s="71">
-        <f t="shared" si="15"/>
-        <v>0.9800000000000324</v>
-      </c>
-      <c r="T27" s="71">
-        <f>POWER(O27-$B$26, 2)</f>
         <v>356.45439999999985</v>
       </c>
       <c r="U27" s="22"/>
@@ -9729,13 +9729,13 @@
     </row>
     <row r="28" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
-      <c r="B28" s="143" t="s">
+      <c r="B28" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="145"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="127"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
@@ -9757,23 +9757,23 @@
         <v>45</v>
       </c>
       <c r="P28" s="71">
+        <f t="shared" si="17"/>
+        <v>43.860000000000014</v>
+      </c>
+      <c r="Q28" s="71">
+        <f t="shared" si="14"/>
+        <v>1.1399999999999864</v>
+      </c>
+      <c r="R28" s="71">
+        <f t="shared" si="15"/>
+        <v>44.039999999999964</v>
+      </c>
+      <c r="S28" s="71">
         <f t="shared" si="16"/>
-        <v>43.860000000000014</v>
-      </c>
-      <c r="Q28" s="71">
+        <v>-0.96000000000003638</v>
+      </c>
+      <c r="T28" s="71">
         <f t="shared" si="13"/>
-        <v>1.1399999999999864</v>
-      </c>
-      <c r="R28" s="71">
-        <f t="shared" si="14"/>
-        <v>44.039999999999964</v>
-      </c>
-      <c r="S28" s="71">
-        <f t="shared" si="15"/>
-        <v>-0.96000000000003638</v>
-      </c>
-      <c r="T28" s="71">
-        <f>POWER(O28-$B$26, 2)</f>
         <v>1530.3744000000004</v>
       </c>
       <c r="U28" s="22"/>
@@ -9803,11 +9803,11 @@
     </row>
     <row r="29" spans="1:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="22"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="148"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="130"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
@@ -9829,23 +9829,23 @@
         <v>89</v>
       </c>
       <c r="P29" s="71">
+        <f t="shared" si="17"/>
+        <v>89.260000000000048</v>
+      </c>
+      <c r="Q29" s="71">
+        <f t="shared" si="14"/>
+        <v>-0.26000000000004775</v>
+      </c>
+      <c r="R29" s="71">
+        <f t="shared" si="15"/>
+        <v>89.44</v>
+      </c>
+      <c r="S29" s="71">
         <f t="shared" si="16"/>
-        <v>89.260000000000048</v>
-      </c>
-      <c r="Q29" s="71">
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="T29" s="71">
         <f t="shared" si="13"/>
-        <v>-0.26000000000004775</v>
-      </c>
-      <c r="R29" s="71">
-        <f t="shared" si="14"/>
-        <v>89.44</v>
-      </c>
-      <c r="S29" s="71">
-        <f t="shared" si="15"/>
-        <v>0.43999999999999773</v>
-      </c>
-      <c r="T29" s="71">
-        <f>POWER(O29-$B$26, 2)</f>
         <v>23.814399999999956</v>
       </c>
       <c r="U29" s="22"/>
@@ -9901,23 +9901,23 @@
         <v>75</v>
       </c>
       <c r="P30" s="71">
+        <f t="shared" si="17"/>
+        <v>73.94000000000004</v>
+      </c>
+      <c r="Q30" s="71">
+        <f t="shared" si="14"/>
+        <v>1.0599999999999596</v>
+      </c>
+      <c r="R30" s="71">
+        <f t="shared" si="15"/>
+        <v>74.11999999999999</v>
+      </c>
+      <c r="S30" s="71">
         <f t="shared" si="16"/>
-        <v>73.94000000000004</v>
-      </c>
-      <c r="Q30" s="71">
+        <v>-0.88000000000000966</v>
+      </c>
+      <c r="T30" s="71">
         <f t="shared" si="13"/>
-        <v>1.0599999999999596</v>
-      </c>
-      <c r="R30" s="71">
-        <f t="shared" si="14"/>
-        <v>74.11999999999999</v>
-      </c>
-      <c r="S30" s="71">
-        <f t="shared" si="15"/>
-        <v>-0.88000000000000966</v>
-      </c>
-      <c r="T30" s="71">
-        <f>POWER(O30-$B$26, 2)</f>
         <v>83.174400000000077</v>
       </c>
       <c r="U30" s="22"/>
@@ -9973,23 +9973,23 @@
         <v>112</v>
       </c>
       <c r="P31" s="71">
+        <f t="shared" si="17"/>
+        <v>111.36000000000007</v>
+      </c>
+      <c r="Q31" s="71">
+        <f t="shared" si="14"/>
+        <v>0.63999999999992951</v>
+      </c>
+      <c r="R31" s="71">
+        <f t="shared" si="15"/>
+        <v>111.54000000000002</v>
+      </c>
+      <c r="S31" s="71">
         <f t="shared" si="16"/>
-        <v>111.36000000000007</v>
-      </c>
-      <c r="Q31" s="71">
+        <v>-0.45999999999997954</v>
+      </c>
+      <c r="T31" s="71">
         <f t="shared" si="13"/>
-        <v>0.63999999999992951</v>
-      </c>
-      <c r="R31" s="71">
-        <f t="shared" si="14"/>
-        <v>111.54000000000002</v>
-      </c>
-      <c r="S31" s="71">
-        <f t="shared" si="15"/>
-        <v>-0.45999999999997954</v>
-      </c>
-      <c r="T31" s="71">
-        <f>POWER(O31-$B$26, 2)</f>
         <v>777.29439999999977</v>
       </c>
       <c r="U31" s="22"/>
@@ -10045,23 +10045,23 @@
         <v>51</v>
       </c>
       <c r="P32" s="71">
+        <f t="shared" si="17"/>
+        <v>51.420000000000023</v>
+      </c>
+      <c r="Q32" s="71">
+        <f t="shared" si="14"/>
+        <v>-0.42000000000002302</v>
+      </c>
+      <c r="R32" s="71">
+        <f t="shared" si="15"/>
+        <v>51.599999999999973</v>
+      </c>
+      <c r="S32" s="71">
         <f t="shared" si="16"/>
-        <v>51.420000000000023</v>
-      </c>
-      <c r="Q32" s="71">
+        <v>0.599999999999973</v>
+      </c>
+      <c r="T32" s="71">
         <f t="shared" si="13"/>
-        <v>-0.42000000000002302</v>
-      </c>
-      <c r="R32" s="71">
-        <f t="shared" si="14"/>
-        <v>51.599999999999973</v>
-      </c>
-      <c r="S32" s="71">
-        <f t="shared" si="15"/>
-        <v>0.599999999999973</v>
-      </c>
-      <c r="T32" s="71">
-        <f>POWER(O32-$B$26, 2)</f>
         <v>1096.9344000000003</v>
       </c>
       <c r="U32" s="22"/>
@@ -10117,23 +10117,23 @@
         <v>61</v>
       </c>
       <c r="P33" s="71">
+        <f t="shared" si="17"/>
+        <v>60.480000000000032</v>
+      </c>
+      <c r="Q33" s="71">
+        <f t="shared" si="14"/>
+        <v>0.5199999999999676</v>
+      </c>
+      <c r="R33" s="71">
+        <f t="shared" si="15"/>
+        <v>60.659999999999982</v>
+      </c>
+      <c r="S33" s="71">
         <f t="shared" si="16"/>
-        <v>60.480000000000032</v>
-      </c>
-      <c r="Q33" s="71">
+        <v>-0.34000000000001762</v>
+      </c>
+      <c r="T33" s="71">
         <f t="shared" si="13"/>
-        <v>0.5199999999999676</v>
-      </c>
-      <c r="R33" s="71">
-        <f t="shared" si="14"/>
-        <v>60.659999999999982</v>
-      </c>
-      <c r="S33" s="71">
-        <f t="shared" si="15"/>
-        <v>-0.34000000000001762</v>
-      </c>
-      <c r="T33" s="71">
-        <f>POWER(O33-$B$26, 2)</f>
         <v>534.53440000000023</v>
       </c>
       <c r="U33" s="22"/>
@@ -10189,23 +10189,23 @@
         <v>107</v>
       </c>
       <c r="P34" s="71">
+        <f t="shared" si="17"/>
+        <v>105.88000000000007</v>
+      </c>
+      <c r="Q34" s="71">
+        <f t="shared" si="14"/>
+        <v>1.1199999999999335</v>
+      </c>
+      <c r="R34" s="71">
+        <f t="shared" si="15"/>
+        <v>106.06000000000002</v>
+      </c>
+      <c r="S34" s="71">
         <f t="shared" si="16"/>
-        <v>105.88000000000007</v>
-      </c>
-      <c r="Q34" s="71">
+        <v>-0.93999999999998352</v>
+      </c>
+      <c r="T34" s="71">
         <f t="shared" si="13"/>
-        <v>1.1199999999999335</v>
-      </c>
-      <c r="R34" s="71">
-        <f t="shared" si="14"/>
-        <v>106.06000000000002</v>
-      </c>
-      <c r="S34" s="71">
-        <f t="shared" si="15"/>
-        <v>-0.93999999999998352</v>
-      </c>
-      <c r="T34" s="71">
-        <f>POWER(O34-$B$26, 2)</f>
         <v>523.49439999999981</v>
       </c>
       <c r="U34" s="22"/>
@@ -10261,23 +10261,23 @@
         <v>91</v>
       </c>
       <c r="P35" s="71">
+        <f t="shared" si="17"/>
+        <v>90.560000000000059</v>
+      </c>
+      <c r="Q35" s="71">
+        <f t="shared" si="14"/>
+        <v>0.43999999999994088</v>
+      </c>
+      <c r="R35" s="71">
+        <f t="shared" si="15"/>
+        <v>90.740000000000009</v>
+      </c>
+      <c r="S35" s="71">
         <f t="shared" si="16"/>
-        <v>90.560000000000059</v>
-      </c>
-      <c r="Q35" s="71">
+        <v>-0.25999999999999091</v>
+      </c>
+      <c r="T35" s="71">
         <f t="shared" si="13"/>
-        <v>0.43999999999994088</v>
-      </c>
-      <c r="R35" s="71">
-        <f t="shared" si="14"/>
-        <v>90.740000000000009</v>
-      </c>
-      <c r="S35" s="71">
-        <f t="shared" si="15"/>
-        <v>-0.25999999999999091</v>
-      </c>
-      <c r="T35" s="71">
-        <f>POWER(O35-$B$26, 2)</f>
         <v>47.334399999999938</v>
       </c>
       <c r="U35" s="22"/>
@@ -10333,23 +10333,23 @@
         <v>71</v>
       </c>
       <c r="P36" s="71">
+        <f t="shared" si="17"/>
+        <v>70.480000000000047</v>
+      </c>
+      <c r="Q36" s="71">
+        <f t="shared" si="14"/>
+        <v>0.51999999999995339</v>
+      </c>
+      <c r="R36" s="71">
+        <f t="shared" si="15"/>
+        <v>70.66</v>
+      </c>
+      <c r="S36" s="71">
         <f t="shared" si="16"/>
-        <v>70.480000000000047</v>
-      </c>
-      <c r="Q36" s="71">
+        <v>-0.34000000000000341</v>
+      </c>
+      <c r="T36" s="71">
         <f t="shared" si="13"/>
-        <v>0.51999999999995339</v>
-      </c>
-      <c r="R36" s="71">
-        <f t="shared" si="14"/>
-        <v>70.66</v>
-      </c>
-      <c r="S36" s="71">
-        <f t="shared" si="15"/>
-        <v>-0.34000000000000341</v>
-      </c>
-      <c r="T36" s="71">
-        <f>POWER(O36-$B$26, 2)</f>
         <v>172.13440000000011</v>
       </c>
       <c r="U36" s="22"/>
@@ -10405,23 +10405,23 @@
         <v>96</v>
       </c>
       <c r="P37" s="71">
+        <f t="shared" si="17"/>
+        <v>95.640000000000072</v>
+      </c>
+      <c r="Q37" s="71">
+        <f t="shared" si="14"/>
+        <v>0.35999999999992838</v>
+      </c>
+      <c r="R37" s="71">
+        <f t="shared" si="15"/>
+        <v>95.820000000000022</v>
+      </c>
+      <c r="S37" s="71">
         <f t="shared" si="16"/>
-        <v>95.640000000000072</v>
-      </c>
-      <c r="Q37" s="71">
+        <v>-0.1799999999999784</v>
+      </c>
+      <c r="T37" s="71">
         <f t="shared" si="13"/>
-        <v>0.35999999999992838</v>
-      </c>
-      <c r="R37" s="71">
-        <f t="shared" si="14"/>
-        <v>95.820000000000022</v>
-      </c>
-      <c r="S37" s="71">
-        <f t="shared" si="15"/>
-        <v>-0.1799999999999784</v>
-      </c>
-      <c r="T37" s="71">
-        <f>POWER(O37-$B$26, 2)</f>
         <v>141.13439999999989</v>
       </c>
       <c r="U37" s="22"/>
@@ -10477,23 +10477,23 @@
         <v>122</v>
       </c>
       <c r="P38" s="71">
+        <f t="shared" si="17"/>
+        <v>120.80000000000007</v>
+      </c>
+      <c r="Q38" s="71">
+        <f t="shared" si="14"/>
+        <v>1.1999999999999318</v>
+      </c>
+      <c r="R38" s="71">
+        <f t="shared" si="15"/>
+        <v>120.98000000000002</v>
+      </c>
+      <c r="S38" s="71">
         <f t="shared" si="16"/>
-        <v>120.80000000000007</v>
-      </c>
-      <c r="Q38" s="71">
+        <v>-1.0199999999999818</v>
+      </c>
+      <c r="T38" s="71">
         <f t="shared" si="13"/>
-        <v>1.1999999999999318</v>
-      </c>
-      <c r="R38" s="71">
-        <f t="shared" si="14"/>
-        <v>120.98000000000002</v>
-      </c>
-      <c r="S38" s="71">
-        <f t="shared" si="15"/>
-        <v>-1.0199999999999818</v>
-      </c>
-      <c r="T38" s="71">
-        <f>POWER(O38-$B$26, 2)</f>
         <v>1434.8943999999997</v>
       </c>
       <c r="U38" s="22"/>
@@ -10549,23 +10549,23 @@
         <v>82</v>
       </c>
       <c r="P39" s="71">
+        <f t="shared" si="17"/>
+        <v>81.100000000000037</v>
+      </c>
+      <c r="Q39" s="71">
+        <f t="shared" si="14"/>
+        <v>0.89999999999996305</v>
+      </c>
+      <c r="R39" s="71">
+        <f t="shared" si="15"/>
+        <v>81.279999999999987</v>
+      </c>
+      <c r="S39" s="71">
         <f t="shared" si="16"/>
-        <v>81.100000000000037</v>
-      </c>
-      <c r="Q39" s="71">
+        <v>-0.72000000000001307</v>
+      </c>
+      <c r="T39" s="71">
         <f t="shared" si="13"/>
-        <v>0.89999999999996305</v>
-      </c>
-      <c r="R39" s="71">
-        <f t="shared" si="14"/>
-        <v>81.279999999999987</v>
-      </c>
-      <c r="S39" s="71">
-        <f t="shared" si="15"/>
-        <v>-0.72000000000001307</v>
-      </c>
-      <c r="T39" s="71">
-        <f>POWER(O39-$B$26, 2)</f>
         <v>4.4944000000000193</v>
       </c>
       <c r="U39" s="22"/>
@@ -10621,23 +10621,23 @@
         <v>65</v>
       </c>
       <c r="P40" s="71">
+        <f t="shared" si="17"/>
+        <v>65.78000000000003</v>
+      </c>
+      <c r="Q40" s="71">
+        <f t="shared" si="14"/>
+        <v>-0.78000000000002956</v>
+      </c>
+      <c r="R40" s="71">
+        <f t="shared" si="15"/>
+        <v>65.95999999999998</v>
+      </c>
+      <c r="S40" s="71">
         <f t="shared" si="16"/>
-        <v>65.78000000000003</v>
-      </c>
-      <c r="Q40" s="71">
+        <v>0.95999999999997954</v>
+      </c>
+      <c r="T40" s="71">
         <f t="shared" si="13"/>
-        <v>-0.78000000000002956</v>
-      </c>
-      <c r="R40" s="71">
-        <f t="shared" si="14"/>
-        <v>65.95999999999998</v>
-      </c>
-      <c r="S40" s="71">
-        <f t="shared" si="15"/>
-        <v>0.95999999999997954</v>
-      </c>
-      <c r="T40" s="71">
-        <f>POWER(O40-$B$26, 2)</f>
         <v>365.5744000000002</v>
       </c>
       <c r="U40" s="22"/>
@@ -10693,23 +10693,23 @@
         <v>59</v>
       </c>
       <c r="P41" s="71">
+        <f t="shared" si="17"/>
+        <v>59.500000000000036</v>
+      </c>
+      <c r="Q41" s="71">
+        <f t="shared" si="14"/>
+        <v>-0.50000000000003553</v>
+      </c>
+      <c r="R41" s="71">
+        <f t="shared" si="15"/>
+        <v>59.679999999999986</v>
+      </c>
+      <c r="S41" s="71">
         <f t="shared" si="16"/>
-        <v>59.500000000000036</v>
-      </c>
-      <c r="Q41" s="71">
+        <v>0.6799999999999855</v>
+      </c>
+      <c r="T41" s="71">
         <f t="shared" si="13"/>
-        <v>-0.50000000000003553</v>
-      </c>
-      <c r="R41" s="71">
-        <f t="shared" si="14"/>
-        <v>59.679999999999986</v>
-      </c>
-      <c r="S41" s="71">
-        <f t="shared" si="15"/>
-        <v>0.6799999999999855</v>
-      </c>
-      <c r="T41" s="71">
-        <f>POWER(O41-$B$26, 2)</f>
         <v>631.01440000000025</v>
       </c>
       <c r="U41" s="22"/>
@@ -10765,23 +10765,23 @@
         <v>85</v>
       </c>
       <c r="P42" s="71">
+        <f t="shared" si="17"/>
+        <v>84.660000000000053</v>
+      </c>
+      <c r="Q42" s="71">
+        <f t="shared" si="14"/>
+        <v>0.33999999999994657</v>
+      </c>
+      <c r="R42" s="71">
+        <f t="shared" si="15"/>
+        <v>84.84</v>
+      </c>
+      <c r="S42" s="71">
         <f t="shared" si="16"/>
-        <v>84.660000000000053</v>
-      </c>
-      <c r="Q42" s="71">
+        <v>-0.15999999999999659</v>
+      </c>
+      <c r="T42" s="71">
         <f t="shared" si="13"/>
-        <v>0.33999999999994657</v>
-      </c>
-      <c r="R42" s="71">
-        <f t="shared" si="14"/>
-        <v>84.84</v>
-      </c>
-      <c r="S42" s="71">
-        <f t="shared" si="15"/>
-        <v>-0.15999999999999659</v>
-      </c>
-      <c r="T42" s="71">
-        <f>POWER(O42-$B$26, 2)</f>
         <v>0.77439999999999198</v>
       </c>
       <c r="U42" s="22"/>
@@ -10837,23 +10837,23 @@
         <v>109</v>
       </c>
       <c r="P43" s="71">
+        <f t="shared" si="17"/>
+        <v>109.82000000000008</v>
+      </c>
+      <c r="Q43" s="71">
+        <f t="shared" si="14"/>
+        <v>-0.82000000000007844</v>
+      </c>
+      <c r="R43" s="71">
+        <f t="shared" si="15"/>
+        <v>110.00000000000003</v>
+      </c>
+      <c r="S43" s="71">
         <f t="shared" si="16"/>
-        <v>109.82000000000008</v>
-      </c>
-      <c r="Q43" s="71">
+        <v>1.0000000000000284</v>
+      </c>
+      <c r="T43" s="71">
         <f t="shared" si="13"/>
-        <v>-0.82000000000007844</v>
-      </c>
-      <c r="R43" s="71">
-        <f t="shared" si="14"/>
-        <v>110.00000000000003</v>
-      </c>
-      <c r="S43" s="71">
-        <f t="shared" si="15"/>
-        <v>1.0000000000000284</v>
-      </c>
-      <c r="T43" s="71">
-        <f>POWER(O43-$B$26, 2)</f>
         <v>619.0143999999998</v>
       </c>
       <c r="U43" s="22"/>
@@ -10909,23 +10909,23 @@
         <v>54</v>
       </c>
       <c r="P44" s="71">
+        <f t="shared" si="17"/>
+        <v>54.020000000000017</v>
+      </c>
+      <c r="Q44" s="71">
+        <f t="shared" si="14"/>
+        <v>-2.0000000000017337E-2</v>
+      </c>
+      <c r="R44" s="71">
+        <f t="shared" si="15"/>
+        <v>54.199999999999967</v>
+      </c>
+      <c r="S44" s="71">
         <f t="shared" si="16"/>
-        <v>54.020000000000017</v>
-      </c>
-      <c r="Q44" s="71">
+        <v>0.19999999999996732</v>
+      </c>
+      <c r="T44" s="71">
         <f t="shared" si="13"/>
-        <v>-2.0000000000017337E-2</v>
-      </c>
-      <c r="R44" s="71">
-        <f t="shared" si="14"/>
-        <v>54.199999999999967</v>
-      </c>
-      <c r="S44" s="71">
-        <f t="shared" si="15"/>
-        <v>0.19999999999996732</v>
-      </c>
-      <c r="T44" s="71">
-        <f>POWER(O44-$B$26, 2)</f>
         <v>907.2144000000003</v>
       </c>
       <c r="U44" s="22"/>
@@ -10985,19 +10985,19 @@
         <v>139.90000000000009</v>
       </c>
       <c r="Q45" s="87">
+        <f t="shared" si="14"/>
+        <v>9.9999999999909051E-2</v>
+      </c>
+      <c r="R45" s="87">
+        <f t="shared" si="15"/>
+        <v>140.08000000000004</v>
+      </c>
+      <c r="S45" s="87">
+        <f t="shared" si="16"/>
+        <v>8.0000000000040927E-2</v>
+      </c>
+      <c r="T45" s="87">
         <f t="shared" si="13"/>
-        <v>9.9999999999909051E-2</v>
-      </c>
-      <c r="R45" s="87">
-        <f t="shared" si="14"/>
-        <v>140.08000000000004</v>
-      </c>
-      <c r="S45" s="87">
-        <f t="shared" si="15"/>
-        <v>8.0000000000040927E-2</v>
-      </c>
-      <c r="T45" s="87">
-        <f>POWER(O45-$B$26, 2)</f>
         <v>3122.5743999999995</v>
       </c>
       <c r="U45" s="22"/>
@@ -13646,21 +13646,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K10:N18"/>
+    <mergeCell ref="O10:R18"/>
+    <mergeCell ref="S10:V18"/>
+    <mergeCell ref="W10:Z18"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="B28:F29"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="J3:J7"/>
     <mergeCell ref="J10:J18"/>
-    <mergeCell ref="K10:N18"/>
-    <mergeCell ref="O10:R18"/>
-    <mergeCell ref="S10:V18"/>
-    <mergeCell ref="W10:Z18"/>
-    <mergeCell ref="C2:G2"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="H2:H3"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
